--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Tnfrsf11b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H2">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,7 +558,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N2">
         <v>0.247237</v>
@@ -570,16 +570,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q2">
-        <v>5.096761938154111</v>
+        <v>5.478520892032666</v>
       </c>
       <c r="R2">
-        <v>45.870857443387</v>
+        <v>49.306688028294</v>
       </c>
       <c r="S2">
-        <v>0.001490511945480944</v>
+        <v>0.002038276834540459</v>
       </c>
       <c r="T2">
-        <v>0.001490511945480944</v>
+        <v>0.002038276834540459</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H3">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -632,16 +632,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q3">
-        <v>102.7254484752747</v>
+        <v>110.419816040896</v>
       </c>
       <c r="R3">
-        <v>924.529036277472</v>
+        <v>993.7783443680639</v>
       </c>
       <c r="S3">
-        <v>0.03004133014553493</v>
+        <v>0.04108155422710676</v>
       </c>
       <c r="T3">
-        <v>0.03004133014553492</v>
+        <v>0.04108155422710675</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I4">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J4">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N4">
         <v>0.247237</v>
@@ -700,10 +700,10 @@
         <v>1009.749830647059</v>
       </c>
       <c r="S4">
-        <v>0.03281046547656756</v>
+        <v>0.04174179550060247</v>
       </c>
       <c r="T4">
-        <v>0.03281046547656756</v>
+        <v>0.04174179550060246</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I5">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J5">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -762,10 +762,10 @@
         <v>20351.5497603599</v>
       </c>
       <c r="S5">
-        <v>0.6612962939335556</v>
+        <v>0.8413076213866781</v>
       </c>
       <c r="T5">
-        <v>0.6612962939335556</v>
+        <v>0.8413076213866779</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H6">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I6">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J6">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,7 +806,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N6">
         <v>0.247237</v>
@@ -818,16 +818,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q6">
-        <v>20.68607370677266</v>
+        <v>3.694636545848</v>
       </c>
       <c r="R6">
-        <v>186.174663360954</v>
+        <v>33.251728912632</v>
       </c>
       <c r="S6">
-        <v>0.006049495805215227</v>
+        <v>0.0013745848983437</v>
       </c>
       <c r="T6">
-        <v>0.006049495805215226</v>
+        <v>0.001374584898343699</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H7">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I7">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J7">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -880,16 +880,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q7">
-        <v>416.928674422336</v>
+        <v>74.465552978688</v>
       </c>
       <c r="R7">
-        <v>3752.358069801024</v>
+        <v>670.189976808192</v>
       </c>
       <c r="S7">
-        <v>0.1219278391223217</v>
+        <v>0.02770481569732417</v>
       </c>
       <c r="T7">
-        <v>0.1219278391223217</v>
+        <v>0.02770481569732416</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H8">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I8">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J8">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N8">
         <v>0.247237</v>
@@ -942,16 +942,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q8">
-        <v>2.23150589079511</v>
+        <v>4.353894748059001</v>
       </c>
       <c r="R8">
-        <v>20.083553017156</v>
+        <v>39.18505273253101</v>
       </c>
       <c r="S8">
-        <v>0.0006525880994641495</v>
+        <v>0.001619861086575759</v>
       </c>
       <c r="T8">
-        <v>0.0006525880994641495</v>
+        <v>0.001619861086575758</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H9">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I9">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J9">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1004,16 +1004,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q9">
-        <v>44.97609387857066</v>
+        <v>87.75292941590402</v>
       </c>
       <c r="R9">
-        <v>404.7848449071359</v>
+        <v>789.7763647431361</v>
       </c>
       <c r="S9">
-        <v>0.01315294023941813</v>
+        <v>0.03264836745473065</v>
       </c>
       <c r="T9">
-        <v>0.01315294023941813</v>
+        <v>0.03264836745473063</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H10">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I10">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J10">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N10">
         <v>0.247237</v>
@@ -1066,16 +1066,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q10">
-        <v>21.42980515500744</v>
+        <v>1.331916347643444</v>
       </c>
       <c r="R10">
-        <v>192.868246395067</v>
+        <v>11.987247128791</v>
       </c>
       <c r="S10">
-        <v>0.006266994801887075</v>
+        <v>0.0004955378085525757</v>
       </c>
       <c r="T10">
-        <v>0.006266994801887075</v>
+        <v>0.0004955378085525756</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H11">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I11">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J11">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1128,16 +1128,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q11">
-        <v>431.9186126403947</v>
+        <v>26.84482928641066</v>
       </c>
       <c r="R11">
-        <v>3887.267513763552</v>
+        <v>241.603463577696</v>
       </c>
       <c r="S11">
-        <v>0.1263115404305546</v>
+        <v>0.00998758510554529</v>
       </c>
       <c r="T11">
-        <v>0.1263115404305546</v>
+        <v>0.009987585105545286</v>
       </c>
     </row>
   </sheetData>
